--- a/Gear Ratios.xlsx
+++ b/Gear Ratios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Spring 2014\ME 4041\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Spring 2014\ME 4041\Final Project\CADproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +421,7 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
